--- a/Project1/Project1/map.xlsx
+++ b/Project1/Project1/map.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:CW104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="33" zoomScaleNormal="33" workbookViewId="0">
-      <selection activeCell="AZ27" sqref="AZ27"/>
+      <selection activeCell="CX72" sqref="CX72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -406,298 +406,298 @@
         <v>9</v>
       </c>
       <c r="B1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AC1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AG1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AH1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AP1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AQ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AS1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AT1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AU1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BE1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BF1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BH1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BK1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BL1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BM1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BN1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BO1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BP1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BQ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BR1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BS1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BT1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BU1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BV1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BW1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BX1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BY1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BZ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CA1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CB1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CC1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CD1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CE1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CF1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CG1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CH1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CI1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CJ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CK1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CL1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CM1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CN1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CO1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CP1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CQ1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CR1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CS1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CT1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CU1" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CV1" s="3">
         <v>9</v>
@@ -30304,298 +30304,298 @@
         <v>9</v>
       </c>
       <c r="B100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AC100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AG100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AH100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AI100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AP100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AQ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AS100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AT100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AU100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BE100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BF100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BH100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BI100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BK100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BL100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BM100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BN100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BO100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BP100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BQ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BR100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BS100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BT100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BU100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BV100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BW100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BX100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BY100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BZ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CA100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CB100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CC100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CD100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CE100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CF100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CG100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CH100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CI100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CJ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CK100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CL100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CM100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CN100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CO100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CP100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CQ100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CR100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CS100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CT100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CU100" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CV100" s="3">
         <v>9</v>
@@ -30603,7 +30603,7 @@
       <c r="CW100" s="3"/>
     </row>
     <row r="101" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
